--- a/src/main/resources/template/excel/export/StockLeadFirstCategory.xlsx
+++ b/src/main/resources/template/excel/export/StockLeadFirstCategory.xlsx
@@ -98,15 +98,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(B3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(C3+0)]</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(D3+0)]</t>
+    <t>$[SUMPRODUCT(B3:B3:B3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(C3:C3:C3+0)]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(D3:D3:D3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
